--- a/bio_diversity/static/data_templates/coldbrook-salmon ladder collection.xlsx
+++ b/bio_diversity/static/data_templates/coldbrook-salmon ladder collection.xlsx
@@ -9,18 +9,340 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="22980" windowHeight="9525" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="22980" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="3" r:id="rId1"/>
-    <sheet name="Sample Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+    <author>Stoyel, Quentin</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+eg. 1999</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+eg. Jan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+eg. 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+True/False value.  Eg. 1/0, y/n</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+eg. Bonell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+eg. FP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional, units can be (cm) or (mm)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional, M/F/IT/I</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional, True/False value, eg. 1/0, Y/N</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Eg. AB, CD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Site</t>
   </si>
@@ -68,19 +390,13 @@
   </si>
   <si>
     <t>Wild Return</t>
-  </si>
-  <si>
-    <t>Scale Sample</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +531,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -573,20 +902,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -634,18 +953,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -944,11 +1252,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,206 +1273,58 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="F9" s="9"/>
-      <c r="W9" s="5"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="W10" s="5"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="F4:F9">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bio_diversity/static/data_templates/coldbrook-salmon ladder collection.xlsx
+++ b/bio_diversity/static/data_templates/coldbrook-salmon ladder collection.xlsx
@@ -29,23 +29,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-eg. 1999</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. 1999</t>
         </r>
       </text>
     </comment>
@@ -53,23 +42,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-eg. Jan</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. Jan</t>
         </r>
       </text>
     </comment>
@@ -77,23 +55,25 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-eg. 1</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Must match a site name in the database</t>
         </r>
       </text>
     </comment>
@@ -101,23 +81,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Stoyel, Quentin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-True/False value.  Eg. 1/0, y/n</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>True/False value.  Eg. 1/0, y/n</t>
         </r>
       </text>
     </comment>
@@ -125,23 +94,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-eg. Bonell</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. Bonell</t>
         </r>
       </text>
     </comment>
@@ -149,23 +107,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-eg. FP</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. 2021 FP</t>
         </r>
       </text>
     </comment>
@@ -173,23 +120,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Stoyel, Quentin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Optional, units can be (cm) or (mm)</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional, units can be (cm) or (mm)</t>
         </r>
       </text>
     </comment>
@@ -197,23 +133,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Stoyel, Quentin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Optional, M/F/IT/I</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional, M/F/IT/I</t>
         </r>
       </text>
     </comment>
@@ -221,23 +146,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Stoyel, Quentin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Optional</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional</t>
         </r>
       </text>
     </comment>
@@ -245,23 +159,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Stoyel, Quentin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Optional</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional</t>
         </r>
       </text>
     </comment>
@@ -269,23 +172,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Stoyel, Quentin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Optional, True/False value, eg. 1/0, Y/N</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional, True/False value, eg. 1/0, Y/N</t>
         </r>
       </text>
     </comment>
@@ -293,23 +185,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Stoyel, Quentin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Eg. AB, CD</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fill if individual is associated with an aquaculture site.  Value must match name of an aquaculture site code in the database</t>
         </r>
       </text>
     </comment>
@@ -317,23 +198,25 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Stoyel, Quentin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Optional</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. AB, CD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional</t>
         </r>
       </text>
     </comment>
@@ -342,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Site</t>
   </si>
@@ -390,6 +273,9 @@
   </si>
   <si>
     <t>Wild Return</t>
+  </si>
+  <si>
+    <t>Aquaculture Site</t>
   </si>
 </sst>
 </file>
@@ -533,7 +419,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -543,7 +428,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1253,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:P3"/>
+  <dimension ref="A3:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,10 +1154,11 @@
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1316,9 +1202,12 @@
         <v>12</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
